--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.341274007255719</v>
+        <v>0.3729963333333333</v>
       </c>
       <c r="H2">
-        <v>0.341274007255719</v>
+        <v>1.118989</v>
       </c>
       <c r="I2">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="J2">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.7530530150947</v>
+        <v>12.07474266666667</v>
       </c>
       <c r="N2">
-        <v>11.7530530150947</v>
+        <v>36.224228</v>
       </c>
       <c r="O2">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="P2">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="Q2">
-        <v>4.011011499950278</v>
+        <v>4.503834740610221</v>
       </c>
       <c r="R2">
-        <v>4.011011499950278</v>
+        <v>40.534512665492</v>
       </c>
       <c r="S2">
-        <v>0.02268245032105202</v>
+        <v>0.01523240845240095</v>
       </c>
       <c r="T2">
-        <v>0.02268245032105202</v>
+        <v>0.01523240845240096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.341274007255719</v>
+        <v>0.3729963333333333</v>
       </c>
       <c r="H3">
-        <v>0.341274007255719</v>
+        <v>1.118989</v>
       </c>
       <c r="I3">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="J3">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.6129529724298</v>
+        <v>16.614382</v>
       </c>
       <c r="N3">
-        <v>16.6129529724298</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O3">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="P3">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="Q3">
-        <v>5.669569033251926</v>
+        <v>6.197103566599331</v>
       </c>
       <c r="R3">
-        <v>5.669569033251926</v>
+        <v>55.77393209939399</v>
       </c>
       <c r="S3">
-        <v>0.03206166772149765</v>
+        <v>0.02095920880424711</v>
       </c>
       <c r="T3">
-        <v>0.03206166772149765</v>
+        <v>0.02095920880424711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.341274007255719</v>
+        <v>0.3729963333333333</v>
       </c>
       <c r="H4">
-        <v>0.341274007255719</v>
+        <v>1.118989</v>
       </c>
       <c r="I4">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="J4">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.6916178048603</v>
+        <v>43.86740866666667</v>
       </c>
       <c r="N4">
-        <v>43.6916178048603</v>
+        <v>131.602226</v>
       </c>
       <c r="O4">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="P4">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="Q4">
-        <v>14.91081349174999</v>
+        <v>16.36238258550156</v>
       </c>
       <c r="R4">
-        <v>14.91081349174999</v>
+        <v>147.261443269514</v>
       </c>
       <c r="S4">
-        <v>0.08432132051411072</v>
+        <v>0.05533917409301809</v>
       </c>
       <c r="T4">
-        <v>0.08432132051411072</v>
+        <v>0.05533917409301811</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.341274007255719</v>
+        <v>0.3729963333333333</v>
       </c>
       <c r="H5">
-        <v>0.341274007255719</v>
+        <v>1.118989</v>
       </c>
       <c r="I5">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="J5">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>58.4988815988357</v>
+        <v>69.577158</v>
       </c>
       <c r="N5">
-        <v>58.4988815988357</v>
+        <v>208.731474</v>
       </c>
       <c r="O5">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="P5">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="Q5">
-        <v>19.9641477432125</v>
+        <v>25.952024817754</v>
       </c>
       <c r="R5">
-        <v>19.9641477432125</v>
+        <v>233.568223359786</v>
       </c>
       <c r="S5">
-        <v>0.1128981528457781</v>
+        <v>0.08777227961461898</v>
       </c>
       <c r="T5">
-        <v>0.1128981528457781</v>
+        <v>0.08777227961461899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.341274007255719</v>
+        <v>0.3729963333333333</v>
       </c>
       <c r="H6">
-        <v>0.341274007255719</v>
+        <v>1.118989</v>
       </c>
       <c r="I6">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="J6">
-        <v>0.263038300726921</v>
+        <v>0.1867874381458752</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.73842966589025</v>
+        <v>5.932863999999999</v>
       </c>
       <c r="N6">
-        <v>5.73842966589025</v>
+        <v>17.798592</v>
       </c>
       <c r="O6">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="P6">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="Q6">
-        <v>1.958376887433462</v>
+        <v>2.212936518165333</v>
       </c>
       <c r="R6">
-        <v>1.958376887433462</v>
+        <v>19.916428663488</v>
       </c>
       <c r="S6">
-        <v>0.01107470932448252</v>
+        <v>0.007484367181590067</v>
       </c>
       <c r="T6">
-        <v>0.01107470932448252</v>
+        <v>0.007484367181590068</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.767876017450327</v>
+        <v>0.8180140000000001</v>
       </c>
       <c r="H7">
-        <v>0.767876017450327</v>
+        <v>2.454042</v>
       </c>
       <c r="I7">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="J7">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7530530150947</v>
+        <v>12.07474266666667</v>
       </c>
       <c r="N7">
-        <v>11.7530530150947</v>
+        <v>36.224228</v>
       </c>
       <c r="O7">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="P7">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="Q7">
-        <v>9.024887542113476</v>
+        <v>9.877308547730667</v>
       </c>
       <c r="R7">
-        <v>9.024887542113476</v>
+        <v>88.895776929576</v>
       </c>
       <c r="S7">
-        <v>0.05103614470554566</v>
+        <v>0.03340602106307296</v>
       </c>
       <c r="T7">
-        <v>0.05103614470554566</v>
+        <v>0.03340602106307296</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.767876017450327</v>
+        <v>0.8180140000000001</v>
       </c>
       <c r="H8">
-        <v>0.767876017450327</v>
+        <v>2.454042</v>
       </c>
       <c r="I8">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="J8">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.6129529724298</v>
+        <v>16.614382</v>
       </c>
       <c r="N8">
-        <v>16.6129529724298</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O8">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="P8">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="Q8">
-        <v>12.75668816655897</v>
+        <v>13.590797077348</v>
       </c>
       <c r="R8">
-        <v>12.75668816655897</v>
+        <v>122.317173696132</v>
       </c>
       <c r="S8">
-        <v>0.07213964497551623</v>
+        <v>0.04596540152976678</v>
       </c>
       <c r="T8">
-        <v>0.07213964497551623</v>
+        <v>0.04596540152976678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.767876017450327</v>
+        <v>0.8180140000000001</v>
       </c>
       <c r="H9">
-        <v>0.767876017450327</v>
+        <v>2.454042</v>
       </c>
       <c r="I9">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="J9">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.6916178048603</v>
+        <v>43.86740866666667</v>
       </c>
       <c r="N9">
-        <v>43.6916178048603</v>
+        <v>131.602226</v>
       </c>
       <c r="O9">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="P9">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="Q9">
-        <v>33.54974547595793</v>
+        <v>35.88415443305468</v>
       </c>
       <c r="R9">
-        <v>33.54974547595793</v>
+        <v>322.957389897492</v>
       </c>
       <c r="S9">
-        <v>0.1897253186762962</v>
+        <v>0.1213637108761376</v>
       </c>
       <c r="T9">
-        <v>0.1897253186762962</v>
+        <v>0.1213637108761376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.767876017450327</v>
+        <v>0.8180140000000001</v>
       </c>
       <c r="H10">
-        <v>0.767876017450327</v>
+        <v>2.454042</v>
       </c>
       <c r="I10">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="J10">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>58.4988815988357</v>
+        <v>69.577158</v>
       </c>
       <c r="N10">
-        <v>58.4988815988357</v>
+        <v>208.731474</v>
       </c>
       <c r="O10">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="P10">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="Q10">
-        <v>44.91988822741217</v>
+        <v>56.915089324212</v>
       </c>
       <c r="R10">
-        <v>44.91988822741217</v>
+        <v>512.235803917908</v>
       </c>
       <c r="S10">
-        <v>0.2540239870062992</v>
+        <v>0.1924923842951261</v>
       </c>
       <c r="T10">
-        <v>0.2540239870062992</v>
+        <v>0.1924923842951261</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.767876017450327</v>
+        <v>0.8180140000000001</v>
       </c>
       <c r="H11">
-        <v>0.767876017450327</v>
+        <v>2.454042</v>
       </c>
       <c r="I11">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="J11">
-        <v>0.5918434996654871</v>
+        <v>0.4096413979783358</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.73842966589025</v>
+        <v>5.932863999999999</v>
       </c>
       <c r="N11">
-        <v>5.73842966589025</v>
+        <v>17.798592</v>
       </c>
       <c r="O11">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="P11">
-        <v>0.04210302945950056</v>
+        <v>0.04006890000678209</v>
       </c>
       <c r="Q11">
-        <v>4.406402518262615</v>
+        <v>4.853165812096</v>
       </c>
       <c r="R11">
-        <v>4.406402518262615</v>
+        <v>43.678492308864</v>
       </c>
       <c r="S11">
-        <v>0.02491840430182991</v>
+        <v>0.01641388021423236</v>
       </c>
       <c r="T11">
-        <v>0.02491840430182991</v>
+        <v>0.01641388021423236</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.18828082970789</v>
+        <v>0.293949</v>
       </c>
       <c r="H12">
-        <v>0.18828082970789</v>
+        <v>0.881847</v>
       </c>
       <c r="I12">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="J12">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.7530530150947</v>
+        <v>12.07474266666667</v>
       </c>
       <c r="N12">
-        <v>11.7530530150947</v>
+        <v>36.224228</v>
       </c>
       <c r="O12">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="P12">
-        <v>0.08623250020384028</v>
+        <v>0.08154942646895191</v>
       </c>
       <c r="Q12">
-        <v>2.212874573282849</v>
+        <v>3.549358532124</v>
       </c>
       <c r="R12">
-        <v>2.212874573282849</v>
+        <v>31.944226789116</v>
       </c>
       <c r="S12">
-        <v>0.0125139051772426</v>
+        <v>0.01200427680390462</v>
       </c>
       <c r="T12">
-        <v>0.0125139051772426</v>
+        <v>0.01200427680390462</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.18828082970789</v>
+        <v>0.293949</v>
       </c>
       <c r="H13">
-        <v>0.18828082970789</v>
+        <v>0.881847</v>
       </c>
       <c r="I13">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="J13">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.6129529724298</v>
+        <v>16.614382</v>
       </c>
       <c r="N13">
-        <v>16.6129529724298</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O13">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="P13">
-        <v>0.1218897310121509</v>
+        <v>0.1122088777077108</v>
       </c>
       <c r="Q13">
-        <v>3.12790056954724</v>
+        <v>4.883780974517999</v>
       </c>
       <c r="R13">
-        <v>3.12790056954724</v>
+        <v>43.95402877066199</v>
       </c>
       <c r="S13">
-        <v>0.01768841831513699</v>
+        <v>0.01651742368012456</v>
       </c>
       <c r="T13">
-        <v>0.01768841831513699</v>
+        <v>0.01651742368012456</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.18828082970789</v>
+        <v>0.293949</v>
       </c>
       <c r="H14">
-        <v>0.18828082970789</v>
+        <v>0.881847</v>
       </c>
       <c r="I14">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="J14">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.6916178048603</v>
+        <v>43.86740866666667</v>
       </c>
       <c r="N14">
-        <v>43.6916178048603</v>
+        <v>131.602226</v>
       </c>
       <c r="O14">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="P14">
-        <v>0.3205667018114246</v>
+        <v>0.2962681786437903</v>
       </c>
       <c r="Q14">
-        <v>8.226294051579117</v>
+        <v>12.894780910158</v>
       </c>
       <c r="R14">
-        <v>8.226294051579117</v>
+        <v>116.053028191422</v>
       </c>
       <c r="S14">
-        <v>0.0465200626210177</v>
+        <v>0.04361140695431834</v>
       </c>
       <c r="T14">
-        <v>0.0465200626210177</v>
+        <v>0.04361140695431834</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.18828082970789</v>
+        <v>0.293949</v>
       </c>
       <c r="H15">
-        <v>0.18828082970789</v>
+        <v>0.881847</v>
       </c>
       <c r="I15">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="J15">
-        <v>0.1451181996075919</v>
+        <v>0.1472024675547531</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>58.4988815988357</v>
+        <v>69.577158</v>
       </c>
       <c r="N15">
-        <v>58.4988815988357</v>
+        <v>208.731474</v>
       </c>
       <c r="O15">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="P15">
-        <v>0.4292080375130838</v>
+        <v>0.4699046171727648</v>
       </c>
       <c r="Q15">
-        <v>11.0142179644124</v>
+        <v>20.452136016942</v>
       </c>
       <c r="R15">
-        <v>11.0142179644124</v>
+        <v>184.069224152478</v>
       </c>
       <c r="S15">
-        <v>0.06228589766100647</v>
+        <v>0.06917111916320259</v>
       </c>
       <c r="T15">
-        <v>0.06228589766100647</v>
+        <v>0.06917111916320259</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.293949</v>
+      </c>
+      <c r="H16">
+        <v>0.881847</v>
+      </c>
+      <c r="I16">
+        <v>0.1472024675547531</v>
+      </c>
+      <c r="J16">
+        <v>0.1472024675547531</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.932863999999999</v>
+      </c>
+      <c r="N16">
+        <v>17.798592</v>
+      </c>
+      <c r="O16">
+        <v>0.04006890000678209</v>
+      </c>
+      <c r="P16">
+        <v>0.04006890000678209</v>
+      </c>
+      <c r="Q16">
+        <v>1.743959439936</v>
+      </c>
+      <c r="R16">
+        <v>15.695634959424</v>
+      </c>
+      <c r="S16">
+        <v>0.005898240953202987</v>
+      </c>
+      <c r="T16">
+        <v>0.005898240953202987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1878646666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.563594</v>
+      </c>
+      <c r="I17">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="J17">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.07474266666667</v>
+      </c>
+      <c r="N17">
+        <v>36.224228</v>
+      </c>
+      <c r="O17">
+        <v>0.08154942646895191</v>
+      </c>
+      <c r="P17">
+        <v>0.08154942646895191</v>
+      </c>
+      <c r="Q17">
+        <v>2.268417506159111</v>
+      </c>
+      <c r="R17">
+        <v>20.415757555432</v>
+      </c>
+      <c r="S17">
+        <v>0.007672009295285713</v>
+      </c>
+      <c r="T17">
+        <v>0.007672009295285713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1878646666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.563594</v>
+      </c>
+      <c r="I18">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="J18">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>16.614382</v>
+      </c>
+      <c r="N18">
+        <v>49.84314599999999</v>
+      </c>
+      <c r="O18">
+        <v>0.1122088777077108</v>
+      </c>
+      <c r="P18">
+        <v>0.1122088777077108</v>
+      </c>
+      <c r="Q18">
+        <v>3.121255336302666</v>
+      </c>
+      <c r="R18">
+        <v>28.091298026724</v>
+      </c>
+      <c r="S18">
+        <v>0.01055639003316462</v>
+      </c>
+      <c r="T18">
+        <v>0.01055639003316462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1878646666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.563594</v>
+      </c>
+      <c r="I19">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="J19">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>43.86740866666667</v>
+      </c>
+      <c r="N19">
+        <v>131.602226</v>
+      </c>
+      <c r="O19">
+        <v>0.2962681786437903</v>
+      </c>
+      <c r="P19">
+        <v>0.2962681786437903</v>
+      </c>
+      <c r="Q19">
+        <v>8.241136106693778</v>
+      </c>
+      <c r="R19">
+        <v>74.170224960244</v>
+      </c>
+      <c r="S19">
+        <v>0.02787232625502167</v>
+      </c>
+      <c r="T19">
+        <v>0.02787232625502167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1878646666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.563594</v>
+      </c>
+      <c r="I20">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="J20">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>69.577158</v>
+      </c>
+      <c r="N20">
+        <v>208.731474</v>
+      </c>
+      <c r="O20">
+        <v>0.4699046171727648</v>
+      </c>
+      <c r="P20">
+        <v>0.4699046171727648</v>
+      </c>
+      <c r="Q20">
+        <v>13.071089595284</v>
+      </c>
+      <c r="R20">
+        <v>117.639806357556</v>
+      </c>
+      <c r="S20">
+        <v>0.04420770012674081</v>
+      </c>
+      <c r="T20">
+        <v>0.04420770012674081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1878646666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.563594</v>
+      </c>
+      <c r="I21">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="J21">
+        <v>0.09407802884066457</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.932863999999999</v>
+      </c>
+      <c r="N21">
+        <v>17.798592</v>
+      </c>
+      <c r="O21">
+        <v>0.04006890000678209</v>
+      </c>
+      <c r="P21">
+        <v>0.04006890000678209</v>
+      </c>
+      <c r="Q21">
+        <v>1.114575517738667</v>
+      </c>
+      <c r="R21">
+        <v>10.031179659648</v>
+      </c>
+      <c r="S21">
+        <v>0.00376960313045175</v>
+      </c>
+      <c r="T21">
+        <v>0.00376960313045175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3240786666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.972236</v>
+      </c>
+      <c r="I22">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="J22">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>12.07474266666667</v>
+      </c>
+      <c r="N22">
+        <v>36.224228</v>
+      </c>
+      <c r="O22">
+        <v>0.08154942646895191</v>
+      </c>
+      <c r="P22">
+        <v>0.08154942646895191</v>
+      </c>
+      <c r="Q22">
+        <v>3.913166503756444</v>
+      </c>
+      <c r="R22">
+        <v>35.218498533808</v>
+      </c>
+      <c r="S22">
+        <v>0.01323471085428766</v>
+      </c>
+      <c r="T22">
+        <v>0.01323471085428766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3240786666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.972236</v>
+      </c>
+      <c r="I23">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="J23">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>16.614382</v>
+      </c>
+      <c r="N23">
+        <v>49.84314599999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1122088777077108</v>
+      </c>
+      <c r="P23">
+        <v>0.1122088777077108</v>
+      </c>
+      <c r="Q23">
+        <v>5.384366766050666</v>
+      </c>
+      <c r="R23">
+        <v>48.45930089445599</v>
+      </c>
+      <c r="S23">
+        <v>0.01821045366040774</v>
+      </c>
+      <c r="T23">
+        <v>0.01821045366040774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.18828082970789</v>
-      </c>
-      <c r="H16">
-        <v>0.18828082970789</v>
-      </c>
-      <c r="I16">
-        <v>0.1451181996075919</v>
-      </c>
-      <c r="J16">
-        <v>0.1451181996075919</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5.73842966589025</v>
-      </c>
-      <c r="N16">
-        <v>5.73842966589025</v>
-      </c>
-      <c r="O16">
-        <v>0.04210302945950056</v>
-      </c>
-      <c r="P16">
-        <v>0.04210302945950056</v>
-      </c>
-      <c r="Q16">
-        <v>1.080436298714186</v>
-      </c>
-      <c r="R16">
-        <v>1.080436298714186</v>
-      </c>
-      <c r="S16">
-        <v>0.006109915833188123</v>
-      </c>
-      <c r="T16">
-        <v>0.006109915833188123</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3240786666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.972236</v>
+      </c>
+      <c r="I24">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="J24">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>43.86740866666667</v>
+      </c>
+      <c r="N24">
+        <v>131.602226</v>
+      </c>
+      <c r="O24">
+        <v>0.2962681786437903</v>
+      </c>
+      <c r="P24">
+        <v>0.2962681786437903</v>
+      </c>
+      <c r="Q24">
+        <v>14.21649131081511</v>
+      </c>
+      <c r="R24">
+        <v>127.948421797336</v>
+      </c>
+      <c r="S24">
+        <v>0.0480815604652946</v>
+      </c>
+      <c r="T24">
+        <v>0.0480815604652946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3240786666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.972236</v>
+      </c>
+      <c r="I25">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="J25">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>69.577158</v>
+      </c>
+      <c r="N25">
+        <v>208.731474</v>
+      </c>
+      <c r="O25">
+        <v>0.4699046171727648</v>
+      </c>
+      <c r="P25">
+        <v>0.4699046171727648</v>
+      </c>
+      <c r="Q25">
+        <v>22.548472595096</v>
+      </c>
+      <c r="R25">
+        <v>202.936253355864</v>
+      </c>
+      <c r="S25">
+        <v>0.07626113397307632</v>
+      </c>
+      <c r="T25">
+        <v>0.07626113397307632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3240786666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.972236</v>
+      </c>
+      <c r="I26">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="J26">
+        <v>0.1622906674803712</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.932863999999999</v>
+      </c>
+      <c r="N26">
+        <v>17.798592</v>
+      </c>
+      <c r="O26">
+        <v>0.04006890000678209</v>
+      </c>
+      <c r="P26">
+        <v>0.04006890000678209</v>
+      </c>
+      <c r="Q26">
+        <v>1.922714654634667</v>
+      </c>
+      <c r="R26">
+        <v>17.304431891712</v>
+      </c>
+      <c r="S26">
+        <v>0.006502808527304916</v>
+      </c>
+      <c r="T26">
+        <v>0.006502808527304916</v>
       </c>
     </row>
   </sheetData>
